--- a/data/campeonato_6_1.xlsx
+++ b/data/campeonato_6_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -65,55 +65,67 @@
     <t>1/1/2022</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>2:2</t>
   </si>
   <si>
     <t>4:4</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>0:2</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
 </sst>
 </file>
@@ -476,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -493,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -510,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -544,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -561,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -607,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -621,10 +633,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -638,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -657,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -671,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -682,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -701,13 +713,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -715,13 +727,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -729,13 +741,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -748,13 +760,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -762,13 +774,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -776,13 +788,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -795,13 +807,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -812,10 +824,10 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -823,13 +835,13 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -842,13 +854,13 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -856,13 +868,13 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -870,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -889,13 +901,13 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -903,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -917,13 +929,13 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -936,13 +948,13 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -950,13 +962,13 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -964,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -983,13 +995,13 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -997,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1011,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1030,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1047,10 +1059,10 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1064,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/campeonato_6_1.xlsx
+++ b/data/campeonato_6_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -65,67 +65,70 @@
     <t>1/1/2022</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>3:7</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>2:3</t>
   </si>
   <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>4:2</t>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>2:2</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>0:2</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -508,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -522,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -539,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -556,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -573,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -619,10 +622,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -633,10 +636,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -647,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -666,10 +669,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -680,10 +683,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -694,10 +697,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -713,13 +716,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -727,13 +730,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -741,13 +744,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -760,13 +763,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -774,13 +777,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -788,13 +791,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -807,13 +810,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -821,13 +824,13 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -835,10 +838,10 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -854,10 +857,10 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -868,10 +871,10 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -885,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -901,13 +904,13 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -915,13 +918,13 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -929,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -948,13 +951,13 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -962,13 +965,13 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -976,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -998,10 +1001,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1009,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1023,13 +1026,13 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1042,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1056,13 +1059,13 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1070,13 +1073,13 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
